--- a/scr/data/report3/1/01.08-02.08.2017 (сутки) отчет Бар лесной.xlsx
+++ b/scr/data/report3/1/01.08-02.08.2017 (сутки) отчет Бар лесной.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SERG\programming\xlsxanalize\scr\data\report3\1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="13275" tabRatio="347"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Бар" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -205,17 +200,17 @@
     <t>Цвас</t>
   </si>
   <si>
-    <t>01.02-02.02.17</t>
+    <t>01.01-02.01.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_р_."/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1706,7 +1701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1738,10 +1733,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1773,7 +1767,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1949,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1961,7 +1954,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
@@ -1975,7 +1968,7 @@
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="18" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +1982,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B2" s="74" t="s">
         <v>53</v>
       </c>
@@ -2003,7 +1996,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2015,7 +2008,7 @@
       </c>
       <c r="I3" s="85"/>
     </row>
-    <row r="4" spans="2:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="54" customHeight="1" thickBot="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
         <v>15</v>
@@ -2040,7 +2033,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1">
       <c r="B5" s="18">
         <v>1</v>
       </c>
@@ -2067,7 +2060,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1">
       <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2072,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="29"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="49" t="s">
         <v>29</v>
       </c>
@@ -2105,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="75" t="s">
         <v>54</v>
       </c>
@@ -2131,7 +2124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="50" t="s">
         <v>26</v>
       </c>
@@ -2157,7 +2150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="50" t="s">
         <v>1</v>
       </c>
@@ -2183,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="50" t="s">
         <v>2</v>
       </c>
@@ -2209,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="50" t="s">
         <v>25</v>
       </c>
@@ -2235,7 +2228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="51" t="s">
         <v>28</v>
       </c>
@@ -2261,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="50" t="s">
         <v>3</v>
       </c>
@@ -2287,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="50" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="50" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="50" t="s">
         <v>6</v>
       </c>
@@ -2365,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="8"/>
       <c r="C18" s="41"/>
       <c r="D18" s="32"/>
@@ -2375,7 +2368,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="50" t="s">
         <v>7</v>
       </c>
@@ -2402,7 +2395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="50" t="s">
         <v>32</v>
       </c>
@@ -2428,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="50" t="s">
         <v>27</v>
       </c>
@@ -2454,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="50" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" s="50" t="s">
         <v>8</v>
       </c>
@@ -2507,7 +2500,7 @@
       </c>
       <c r="J23" s="82"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24" s="8"/>
       <c r="C24" s="41"/>
       <c r="D24" s="32"/>
@@ -2517,7 +2510,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="B25" s="50" t="s">
         <v>30</v>
       </c>
@@ -2545,7 +2538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10">
       <c r="B26" s="50" t="s">
         <v>41</v>
       </c>
@@ -2573,7 +2566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="B27" s="52"/>
       <c r="C27" s="42"/>
       <c r="D27" s="32"/>
@@ -2583,7 +2576,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="B28" s="50" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +2604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="B29" s="78" t="s">
         <v>55</v>
       </c>
@@ -2637,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10">
       <c r="B30" s="53" t="s">
         <v>42</v>
       </c>
@@ -2665,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10">
       <c r="B31" s="54" t="s">
         <v>42</v>
       </c>
@@ -2691,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10">
       <c r="B32" s="54" t="s">
         <v>42</v>
       </c>
@@ -2717,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9">
       <c r="B33" s="53" t="s">
         <v>45</v>
       </c>
@@ -2745,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9">
       <c r="B34" s="53" t="s">
         <v>45</v>
       </c>
@@ -2773,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9">
       <c r="B35" s="53" t="s">
         <v>47</v>
       </c>
@@ -2799,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="55" t="s">
         <v>49</v>
       </c>
@@ -2825,7 +2818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9">
       <c r="B37" s="8"/>
       <c r="C37" s="45"/>
       <c r="D37" s="32"/>
@@ -2835,7 +2828,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9">
       <c r="B38" s="50" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="50" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9">
       <c r="B40" s="50" t="s">
         <v>52</v>
       </c>
@@ -2913,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9">
       <c r="B41" s="50" t="s">
         <v>57</v>
       </c>
@@ -2939,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9">
       <c r="B42" s="50" t="s">
         <v>10</v>
       </c>
@@ -2965,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9">
       <c r="B43" s="50" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9">
       <c r="B44" s="50" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +3010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9">
       <c r="B45" s="50" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9">
       <c r="B46" s="8"/>
       <c r="C46" s="45"/>
       <c r="D46" s="32"/>
@@ -3053,7 +3046,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9">
       <c r="B47" s="50" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9">
       <c r="B48" s="50" t="s">
         <v>39</v>
       </c>
@@ -3105,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" s="50" t="s">
         <v>36</v>
       </c>
@@ -3131,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50" s="59" t="s">
         <v>51</v>
       </c>
@@ -3157,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15.75" thickBot="1">
       <c r="B51" s="56" t="s">
         <v>14</v>
       </c>
@@ -3175,13 +3168,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="I54" t="s">
         <v>35</v>
       </c>
@@ -3209,12 +3202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
